--- a/DDTuneTrack/bin/Release/DDRentalTunes2015.xlsx
+++ b/DDTuneTrack/bin/Release/DDRentalTunes2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tune Type</t>
   </si>
@@ -36,13 +36,10 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Performance Tune</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>Wax Only</t>
+    <t>Accident Calibration</t>
+  </si>
+  <si>
+    <t>RG</t>
   </si>
 </sst>
 </file>
@@ -394,7 +391,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +424,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>245</v>
+        <v>131166</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -441,26 +438,13 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2">
+        <v>15166</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1445</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42258</v>
-      </c>
-      <c r="D3" s="2">
-        <v>42258</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>3455</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
